--- a/ResultadoEleicoesDistritos/BRAGANÇA_MACEDO DE CAVALEIROS.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_MACEDO DE CAVALEIROS.xlsx
@@ -597,64 +597,64 @@
         <v>5150</v>
       </c>
       <c r="H2" t="n">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="I2" t="n">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="J2" t="n">
-        <v>2065</v>
+        <v>2121</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26</v>
+      </c>
+      <c r="S2" t="n">
+        <v>249</v>
+      </c>
+      <c r="T2" t="n">
+        <v>351</v>
+      </c>
+      <c r="U2" t="n">
+        <v>25</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3287</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
-        <v>19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>219</v>
-      </c>
-      <c r="T2" t="n">
-        <v>371</v>
-      </c>
-      <c r="U2" t="n">
-        <v>22</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3343</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>3230</v>
+        <v>3285</v>
       </c>
       <c r="Y2" t="n">
         <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
